--- a/medicine/Psychotrope/Kirin_(entreprise)/Kirin_(entreprise).xlsx
+++ b/medicine/Psychotrope/Kirin_(entreprise)/Kirin_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kirin Brewery Company, Ltd. (麒麟麦酒株式会社, Kirin Bīru Kabushiki-gaisha?) (TSE : 2503, NASDAQ : KNBWY) est une brasserie japonaise dont la marque phare est la Kirin, qui avec Asahi, Sapporo et Suntory, est une des marques de bière les plus consommées au Japon.
@@ -512,17 +524,19 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 1998, Kirin acquiert 45 % de Lion Nathan[1].
-En 2009, Kirin acquiert la totalité de Lion Nathan soit l'acquisition de 53,9 % qu'il ne possédait pas encore pour l'équivalent de 2,4 milliards de dollars[2].
-En janvier 2009, Kirin fait l'acquisition de 43 % de San Miguel Brewery aux Philippines pour l'équivalent de 1,23 milliard de dollars, pour faire monter sa participation dans cette entreprise à 48 %. Pour financer cette acquisition, Kirin vend sa participation de 19 % dans le conglomérat San Miguel Corporation, qui chapeaute notamment cette activité de brasserie[3],[4].
-En août 2011, Kirin a racheté l'entreprise brésilienne Schincariol pour 2,6 milliards de dollars[5].
-En février 2013, Kirin a vendu sa participation de 15 % dans Fraser and Neave à l'entrepreneur Charoen Sirivadhanabhakdi, affilié à ThaiBev, pour 1,6 milliard de dollars[6]. 
-En aout 2015, Kirin acquiert 55 % de Myanmar Brewery, principale entreprise brassicole en Birmanie à Fraser and Neave pour 560 millions de dollars[7].
-En février 2017, Heineken annonce l'acquisition pour 1,025 milliard d'euros de la filiale brésilienne de Kirin, entité déficitaire, constituée à la suite de l'acquisition de Schincariol en 2011[8].
-En novembre 2018, elle annonce qu’à partir de mars 2019, Kirin arrêtera de vendre son « Fuji-sanroku Tarujuku 50 » car ne pouvant suivre la demande. Les ventes de cette marque représentent plus de 30 % du total des cinq whiskies fabriqués au Japon par le brasseur[9].
-En août 2019, Kirin annonce prendre une participation de 30,3 % dans Fancl, une entreprise cosmétique, pour 1,2 milliard de dollars[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 1998, Kirin acquiert 45 % de Lion Nathan.
+En 2009, Kirin acquiert la totalité de Lion Nathan soit l'acquisition de 53,9 % qu'il ne possédait pas encore pour l'équivalent de 2,4 milliards de dollars.
+En janvier 2009, Kirin fait l'acquisition de 43 % de San Miguel Brewery aux Philippines pour l'équivalent de 1,23 milliard de dollars, pour faire monter sa participation dans cette entreprise à 48 %. Pour financer cette acquisition, Kirin vend sa participation de 19 % dans le conglomérat San Miguel Corporation, qui chapeaute notamment cette activité de brasserie,.
+En août 2011, Kirin a racheté l'entreprise brésilienne Schincariol pour 2,6 milliards de dollars.
+En février 2013, Kirin a vendu sa participation de 15 % dans Fraser and Neave à l'entrepreneur Charoen Sirivadhanabhakdi, affilié à ThaiBev, pour 1,6 milliard de dollars. 
+En aout 2015, Kirin acquiert 55 % de Myanmar Brewery, principale entreprise brassicole en Birmanie à Fraser and Neave pour 560 millions de dollars.
+En février 2017, Heineken annonce l'acquisition pour 1,025 milliard d'euros de la filiale brésilienne de Kirin, entité déficitaire, constituée à la suite de l'acquisition de Schincariol en 2011.
+En novembre 2018, elle annonce qu’à partir de mars 2019, Kirin arrêtera de vendre son « Fuji-sanroku Tarujuku 50 » car ne pouvant suivre la demande. Les ventes de cette marque représentent plus de 30 % du total des cinq whiskies fabriqués au Japon par le brasseur.
+En août 2019, Kirin annonce prendre une participation de 30,3 % dans Fancl, une entreprise cosmétique, pour 1,2 milliard de dollars.
 </t>
         </is>
       </c>
